--- a/biology/Médecine/Ioulia_Païevska/Ioulia_Païevska.xlsx
+++ b/biology/Médecine/Ioulia_Païevska/Ioulia_Païevska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ioulia_Pa%C3%AFevska</t>
+          <t>Ioulia_Païevska</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ioulia Païevska née le 19 décembre 1968 à Kiev, est une médecin, activiste et personnalité publique ukrainienne.
-Le 8 mars 2023, elle reçoit le prix international de la femme de courage[1].
+Le 8 mars 2023, elle reçoit le prix international de la femme de courage.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ioulia_Pa%C3%AFevska</t>
+          <t>Ioulia_Païevska</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a fait ses études de médecine à l'Université nationale d'éducation physique et du sport d'Ukraine et fut une professeure d'Aïkido. Elle a participé à l'Euromaïdan sous le pseudonyme de Taïra. Fondatrice des anges de Taïra, elle participe à la guerre du Donbass et commandait le 61e hôpital mobile[2]. Elle fut entraîneuse pour la préparation des Jeux Invictus des ukrainien(ne)s.
-Lors de l'Invasion de l'Ukraine par la Russie depuis 2022 elle fut capturé avec son chauffeur[3] ; elle enregistrait avec une caméra embarquée ses activités à Marioupol.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait ses études de médecine à l'Université nationale d'éducation physique et du sport d'Ukraine et fut une professeure d'Aïkido. Elle a participé à l'Euromaïdan sous le pseudonyme de Taïra. Fondatrice des anges de Taïra, elle participe à la guerre du Donbass et commandait le 61e hôpital mobile. Elle fut entraîneuse pour la préparation des Jeux Invictus des ukrainien(ne)s.
+Lors de l'Invasion de l'Ukraine par la Russie depuis 2022 elle fut capturé avec son chauffeur ; elle enregistrait avec une caméra embarquée ses activités à Marioupol.
 			Pour le Prix Sakharov en 2022 avec Oleksandra Matviïtchouk, Ivan Fedorov.
 			Avec Jill Biden et Antony Blinken en mars 2023 recevant le Prix international de la femme de courage.
 </t>
